--- a/Postnatal_timepoints.xlsx
+++ b/Postnatal_timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viltebaltramonaityte/Documents/MyGit/Cumulative_ELS_score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6FDF3-8A51-E24F-8851-7463B77D32D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E93F58-09ED-2847-AF02-56BBE50CC27B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="460" windowWidth="22780" windowHeight="14660" xr2:uid="{B4693B6F-6091-B942-BE3F-A40B1F55EE78}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>A pet died (adj)</t>
   </si>
   <si>
-    <t>Ch taken into car</t>
-  </si>
-  <si>
     <t>Child started school</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
       </rPr>
       <t>DIRECT VICTIMIZATION</t>
     </r>
+  </si>
+  <si>
+    <t>Ch taken into care</t>
   </si>
 </sst>
 </file>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07158C68-C35D-3D4D-935D-6D0894CFE9AA}">
   <dimension ref="B4:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>4</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>50</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>50</v>
@@ -2222,13 +2222,13 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>50</v>
@@ -2243,13 +2243,13 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>50</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>50</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>50</v>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>50</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>50</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>50</v>
@@ -2375,13 +2375,13 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>50</v>
@@ -2397,13 +2397,13 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>50</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>50</v>
@@ -2434,20 +2434,20 @@
         <v>51</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>50</v>
@@ -2456,20 +2456,20 @@
         <v>51</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>50</v>
@@ -2575,7 +2575,7 @@
   <sheetData>
     <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>4</v>
@@ -2785,7 +2785,7 @@
   <sheetData>
     <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>4</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>93</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>93</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>93</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>93</v>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>93</v>
@@ -2917,7 +2917,7 @@
   <sheetData>
     <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>4</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -2954,16 +2954,16 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -2971,16 +2971,16 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -2988,16 +2988,16 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -3005,16 +3005,16 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -3022,16 +3022,16 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -3039,16 +3039,16 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -3056,16 +3056,16 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -3073,16 +3073,16 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -3090,16 +3090,16 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -3107,16 +3107,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>72</v>
@@ -3141,33 +3141,33 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>74</v>
@@ -3175,53 +3175,53 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
         <v>168</v>
       </c>
-      <c r="E21" t="s">
-        <v>169</v>
-      </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" t="s">
         <v>168</v>
       </c>
-      <c r="E22" t="s">
-        <v>169</v>
-      </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3253,7 @@
   <sheetData>
     <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>4</v>
